--- a/data/trans_camb/P16A97-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A97-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,74; 38,3</t>
+          <t>28,13; 37,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 25,12</t>
+          <t>13,62; 24,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -7,73</t>
+          <t>-13,33; -7,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,53; 49,03</t>
+          <t>36,66; 48,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,17; 37,77</t>
+          <t>23,94; 37,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,15; -16,15</t>
+          <t>-24,03; -15,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,55; 42,77</t>
+          <t>34,75; 42,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,76; 29,83</t>
+          <t>20,38; 29,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,15; -12,13</t>
+          <t>-17,3; -12,49</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>215,26; 457,32</t>
+          <t>226,81; 468,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>109,22; 295,85</t>
+          <t>112,97; 303,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>153,04; 290,8</t>
+          <t>156,73; 300,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>100,39; 223,74</t>
+          <t>102,42; 221,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>206,82; 334,63</t>
+          <t>206,78; 329,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>125,54; 230,37</t>
+          <t>122,56; 231,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 9,56</t>
+          <t>5,93; 9,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 8,99</t>
+          <t>5,21; 8,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; -1,52</t>
+          <t>-3,11; -1,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 19,96</t>
+          <t>13,3; 20,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 16,14</t>
+          <t>10,19; 16,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,87; -4,67</t>
+          <t>-7,87; -4,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 13,07</t>
+          <t>9,34; 13,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 11,83</t>
+          <t>8,2; 11,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; -3,21</t>
+          <t>-4,83; -3,17</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>205,9; 599,93</t>
+          <t>189,21; 580,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>169,08; 552,12</t>
+          <t>175,93; 543,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>176,47; 385,65</t>
+          <t>177,37; 401,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>129,95; 320,23</t>
+          <t>131,34; 312,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>210,74; 391,56</t>
+          <t>201,37; 391,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>176,65; 348,79</t>
+          <t>179,66; 347,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 8,64</t>
+          <t>0,61; 8,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 9,76</t>
+          <t>1,57; 9,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -2,31</t>
+          <t>-6,67; -2,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 17,15</t>
+          <t>4,33; 17,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 5,93</t>
+          <t>-4,47; 5,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -6,29</t>
+          <t>-13,11; -5,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 11,28</t>
+          <t>3,59; 10,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,06</t>
+          <t>0,58; 7,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,64; -4,38</t>
+          <t>-8,32; -4,22</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 321,8</t>
+          <t>6,36; 364,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,02; 372,88</t>
+          <t>19,46; 395,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,74; 257,1</t>
+          <t>35,02; 244,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,43; 87,42</t>
+          <t>-36,97; 76,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,33; 238,84</t>
+          <t>44,07; 219,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,85; 150,38</t>
+          <t>6,2; 142,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,2; 15,15</t>
+          <t>11,44; 15,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,69; 10,4</t>
+          <t>6,66; 10,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -3,41</t>
+          <t>-5,17; -3,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,46; 27,87</t>
+          <t>22,03; 27,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,08; 16,33</t>
+          <t>11,13; 16,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -8,69</t>
+          <t>-11,72; -8,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,85; 20,22</t>
+          <t>16,75; 20,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,29; 12,4</t>
+          <t>9,58; 12,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,67; -6,12</t>
+          <t>-7,64; -5,96</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>225,65; 427,31</t>
+          <t>231,56; 434,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>134,44; 285,91</t>
+          <t>132,43; 280,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>199,89; 307,35</t>
+          <t>193,54; 314,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>100,88; 178,56</t>
+          <t>96,99; 184,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>225,51; 323,22</t>
+          <t>226,72; 326,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>124,39; 195,34</t>
+          <t>128,57; 202,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">

--- a/data/trans_camb/P16A97-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A97-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,13; 37,86</t>
+          <t>27,81; 38,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,62; 24,55</t>
+          <t>13,91; 24,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,33; -7,72</t>
+          <t>-13,28; -7,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,66; 48,98</t>
+          <t>36,17; 48,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,94; 37,99</t>
+          <t>23,36; 38,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,03; -15,95</t>
+          <t>-24,18; -16,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,75; 42,68</t>
+          <t>34,53; 42,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,38; 29,8</t>
+          <t>20,18; 29,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -12,49</t>
+          <t>-17,27; -12,64</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>226,81; 468,35</t>
+          <t>226,05; 466,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>112,97; 303,67</t>
+          <t>110,77; 293,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>156,73; 300,21</t>
+          <t>154,82; 286,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>102,42; 221,67</t>
+          <t>102,53; 231,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>206,78; 329,96</t>
+          <t>205,7; 337,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>122,56; 231,45</t>
+          <t>124,42; 228,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 9,66</t>
+          <t>5,85; 9,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,82</t>
+          <t>5,48; 8,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -1,5</t>
+          <t>-3,13; -1,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 20,17</t>
+          <t>13,1; 19,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 16,25</t>
+          <t>10,34; 16,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,87; -4,79</t>
+          <t>-7,83; -4,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,19</t>
+          <t>9,34; 13,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 11,45</t>
+          <t>8,03; 11,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; -3,17</t>
+          <t>-4,71; -3,08</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>189,21; 580,73</t>
+          <t>201,03; 594,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>175,93; 543,52</t>
+          <t>188,79; 540,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>177,37; 401,32</t>
+          <t>170,0; 383,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>131,34; 312,46</t>
+          <t>138,39; 313,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>201,37; 391,05</t>
+          <t>204,05; 385,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>179,66; 347,52</t>
+          <t>183,92; 347,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 8,5</t>
+          <t>0,27; 8,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 9,92</t>
+          <t>1,67; 9,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,67; -2,15</t>
+          <t>-6,68; -2,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 17,44</t>
+          <t>4,33; 17,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 5,05</t>
+          <t>-4,34; 5,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -5,9</t>
+          <t>-13,23; -6,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,94</t>
+          <t>3,48; 11,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,11</t>
+          <t>0,55; 6,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -4,22</t>
+          <t>-8,17; -4,26</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 364,25</t>
+          <t>-2,08; 299,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,46; 395,45</t>
+          <t>19,22; 389,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,02; 244,42</t>
+          <t>32,52; 238,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 76,37</t>
+          <t>-38,71; 82,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,07; 219,56</t>
+          <t>46,83; 243,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,2; 142,3</t>
+          <t>7,12; 136,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,44; 15,54</t>
+          <t>11,35; 15,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,66; 10,34</t>
+          <t>6,71; 10,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,17; -3,45</t>
+          <t>-5,29; -3,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,03; 27,86</t>
+          <t>22,38; 28,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,13; 16,44</t>
+          <t>11,16; 16,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -8,48</t>
+          <t>-11,69; -8,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,75; 20,22</t>
+          <t>16,96; 20,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,58; 12,6</t>
+          <t>9,45; 12,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; -5,96</t>
+          <t>-7,76; -6,05</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>231,56; 434,44</t>
+          <t>224,48; 413,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>132,43; 280,69</t>
+          <t>131,63; 289,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>193,54; 314,42</t>
+          <t>196,65; 311,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>96,99; 184,86</t>
+          <t>97,92; 183,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>226,72; 326,77</t>
+          <t>224,25; 331,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>128,57; 202,6</t>
+          <t>124,36; 198,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
